--- a/Assets/StreamingAssets/Excel/Player.xlsx
+++ b/Assets/StreamingAssets/Excel/Player.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CE08C-2E26-432A-A99F-D79B01C23041}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08019C21-BD58-4947-8851-32D23EE5F761}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>注释</t>
   </si>
@@ -42,6 +42,21 @@
   <si>
     <t>live</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopBaby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeUp</t>
   </si>
 </sst>
 </file>
@@ -366,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -390,8 +405,20 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -405,10 +432,22 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -421,7 +460,19 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
